--- a/evaluation/results/isolation_forest/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_3/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.891459074733096</v>
+        <v>0.9448398576512456</v>
       </c>
       <c r="C2">
-        <v>0.2537313432835821</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D2">
-        <v>0.6071428571428571</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E2">
-        <v>0.3578947368421053</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="F2">
-        <v>0.4748603351955307</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G2">
-        <v>0.576271186440678</v>
+        <v>0.5320600272851296</v>
       </c>
       <c r="H2">
-        <v>0.7567549491706795</v>
+        <v>0.7510032102728731</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="L2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9777777777777777</v>
+        <v>0.9754253308128544</v>
       </c>
       <c r="C2">
-        <v>0.9063670411985019</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="D2">
-        <v>0.9407191448007775</v>
+        <v>0.9708372530573848</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.2537313432835821</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C3">
-        <v>0.6071428571428571</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D3">
-        <v>0.3578947368421053</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.891459074733096</v>
+        <v>0.9448398576512456</v>
       </c>
       <c r="C4">
-        <v>0.891459074733096</v>
+        <v>0.9448398576512456</v>
       </c>
       <c r="D4">
-        <v>0.891459074733096</v>
+        <v>0.9448398576512456</v>
       </c>
       <c r="E4">
-        <v>0.891459074733096</v>
+        <v>0.9448398576512456</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6157545605306799</v>
+        <v>0.7149853926791545</v>
       </c>
       <c r="C5">
-        <v>0.7567549491706795</v>
+        <v>0.7510032102728732</v>
       </c>
       <c r="D5">
-        <v>0.6493069408214414</v>
+        <v>0.7313202658729547</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9417042899382093</v>
+        <v>0.9494740202514893</v>
       </c>
       <c r="C6">
-        <v>0.891459074733096</v>
+        <v>0.9448398576512456</v>
       </c>
       <c r="D6">
-        <v>0.9116816298135126</v>
+        <v>0.946970791700929</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/results/isolation_forest/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_3/test_95_5/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.5320600272851296</v>
       </c>
       <c r="H2">
-        <v>0.7510032102728731</v>
+        <v>0.7789258962011771</v>
       </c>
       <c r="I2">
         <v>15</v>

--- a/evaluation/results/isolation_forest/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_3/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9448398576512456</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="C2">
-        <v>0.4545454545454545</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="D2">
-        <v>0.5357142857142857</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="E2">
-        <v>0.4918032786885246</v>
+        <v>0.1141552511415525</v>
       </c>
       <c r="F2">
-        <v>0.5172413793103449</v>
+        <v>0.239463601532567</v>
       </c>
       <c r="G2">
-        <v>0.5320600272851296</v>
+        <v>0.5855855855855856</v>
       </c>
       <c r="H2">
-        <v>0.7789258962011771</v>
+        <v>0.7602327447833066</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>385</v>
       </c>
       <c r="K2">
-        <v>516</v>
+        <v>149</v>
       </c>
       <c r="L2">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9754253308128544</v>
+        <v>0.9802631578947368</v>
       </c>
       <c r="C2">
-        <v>0.9662921348314607</v>
+        <v>0.2790262172284644</v>
       </c>
       <c r="D2">
-        <v>0.9708372530573848</v>
+        <v>0.434402332361516</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.4545454545454545</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="C3">
-        <v>0.5357142857142857</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="D3">
-        <v>0.4918032786885246</v>
+        <v>0.1141552511415525</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9448398576512456</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="C4">
-        <v>0.9448398576512456</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="D4">
-        <v>0.9448398576512456</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="E4">
-        <v>0.9448398576512456</v>
+        <v>0.3096085409252669</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7149853926791545</v>
+        <v>0.5206193838254172</v>
       </c>
       <c r="C5">
-        <v>0.7510032102728732</v>
+        <v>0.5859416800428037</v>
       </c>
       <c r="D5">
-        <v>0.7313202658729547</v>
+        <v>0.2742787917515342</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9494740202514893</v>
+        <v>0.9344623547846268</v>
       </c>
       <c r="C6">
-        <v>0.9448398576512456</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="D6">
-        <v>0.946970791700929</v>
+        <v>0.4184469617669271</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>516</v>
+        <v>149</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
